--- a/Series/Tabla/Tabla.xlsx
+++ b/Series/Tabla/Tabla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Github\Camaras\Series\Tabla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB147C3-C9EE-406C-B280-E7CFCD3B97AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83537303-F1A5-4E03-8F26-6DF452953BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="583">
   <si>
     <t>Serie</t>
   </si>
@@ -1284,9 +1284,6 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>7,6</t>
-  </si>
-  <si>
     <t>17,3</t>
   </si>
   <si>
@@ -1305,9 +1302,6 @@
     <t>7,0</t>
   </si>
   <si>
-    <t>-0,5</t>
-  </si>
-  <si>
     <t>2024-M12</t>
   </si>
   <si>
@@ -1329,12 +1323,6 @@
     <t>Período</t>
   </si>
   <si>
-    <t>102,2</t>
-  </si>
-  <si>
-    <t>101,2</t>
-  </si>
-  <si>
     <t>2025-M02</t>
   </si>
   <si>
@@ -1467,15 +1455,9 @@
     <t>-3,8</t>
   </si>
   <si>
-    <t>7.189.824</t>
-  </si>
-  <si>
     <t>3,4</t>
   </si>
   <si>
-    <t>82,9</t>
-  </si>
-  <si>
     <t>6,6</t>
   </si>
   <si>
@@ -1491,63 +1473,12 @@
     <t>24,4</t>
   </si>
   <si>
-    <t>74.554</t>
-  </si>
-  <si>
-    <t>487.459</t>
-  </si>
-  <si>
-    <t>270.655</t>
-  </si>
-  <si>
-    <t>1.706.182</t>
-  </si>
-  <si>
-    <t>52.053</t>
-  </si>
-  <si>
-    <t>310.346</t>
-  </si>
-  <si>
-    <t>10,4</t>
-  </si>
-  <si>
-    <t>7,3</t>
-  </si>
-  <si>
-    <t>8.138</t>
-  </si>
-  <si>
-    <t>152.952</t>
-  </si>
-  <si>
-    <t>11,5</t>
-  </si>
-  <si>
-    <t>110,0</t>
-  </si>
-  <si>
-    <t>109,0</t>
-  </si>
-  <si>
     <t>102,3</t>
   </si>
   <si>
     <t>102,0</t>
   </si>
   <si>
-    <t>95,1</t>
-  </si>
-  <si>
-    <t>103,2</t>
-  </si>
-  <si>
-    <t>120,1</t>
-  </si>
-  <si>
-    <t>109,5</t>
-  </si>
-  <si>
     <t>3,5</t>
   </si>
   <si>
@@ -1611,30 +1542,6 @@
     <t>16,3</t>
   </si>
   <si>
-    <t>1.377</t>
-  </si>
-  <si>
-    <t>10.570</t>
-  </si>
-  <si>
-    <t>241,7</t>
-  </si>
-  <si>
-    <t>186,0</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>2.799</t>
-  </si>
-  <si>
-    <t>49,0</t>
-  </si>
-  <si>
-    <t>34,1</t>
-  </si>
-  <si>
     <t>118,1</t>
   </si>
   <si>
@@ -1662,18 +1569,6 @@
     <t>7,8</t>
   </si>
   <si>
-    <t>2,50</t>
-  </si>
-  <si>
-    <t>3,29</t>
-  </si>
-  <si>
-    <t>-2,34</t>
-  </si>
-  <si>
-    <t>13,06</t>
-  </si>
-  <si>
     <t>129,2</t>
   </si>
   <si>
@@ -1710,51 +1605,12 @@
     <t>370</t>
   </si>
   <si>
-    <t>254.400</t>
-  </si>
-  <si>
-    <t>1.330.155</t>
-  </si>
-  <si>
     <t>-0,6</t>
   </si>
   <si>
-    <t>39.887</t>
-  </si>
-  <si>
-    <t>91.872</t>
-  </si>
-  <si>
-    <t>-2,1</t>
-  </si>
-  <si>
-    <t>-2,5</t>
-  </si>
-  <si>
-    <t>16.097</t>
-  </si>
-  <si>
-    <t>102.678</t>
-  </si>
-  <si>
     <t>-1,8</t>
   </si>
   <si>
-    <t>23.960</t>
-  </si>
-  <si>
-    <t>142.014</t>
-  </si>
-  <si>
-    <t>174.456</t>
-  </si>
-  <si>
-    <t>993.591</t>
-  </si>
-  <si>
-    <t>-0,2</t>
-  </si>
-  <si>
     <t>3.435.820</t>
   </si>
   <si>
@@ -1768,6 +1624,168 @@
   </si>
   <si>
     <t>Afiliados último día (miles)</t>
+  </si>
+  <si>
+    <t>105,2</t>
+  </si>
+  <si>
+    <t>6.450.720</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>83,4</t>
+  </si>
+  <si>
+    <t>77.863</t>
+  </si>
+  <si>
+    <t>524.645</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>289.011</t>
+  </si>
+  <si>
+    <t>1.813.025</t>
+  </si>
+  <si>
+    <t>46.266</t>
+  </si>
+  <si>
+    <t>310.127</t>
+  </si>
+  <si>
+    <t>-9,5</t>
+  </si>
+  <si>
+    <t>8.408</t>
+  </si>
+  <si>
+    <t>161.065</t>
+  </si>
+  <si>
+    <t>24,1</t>
+  </si>
+  <si>
+    <t>14,9</t>
+  </si>
+  <si>
+    <t>109,6</t>
+  </si>
+  <si>
+    <t>108,8</t>
+  </si>
+  <si>
+    <t>101,3</t>
+  </si>
+  <si>
+    <t>-3,3</t>
+  </si>
+  <si>
+    <t>97,9</t>
+  </si>
+  <si>
+    <t>103,1</t>
+  </si>
+  <si>
+    <t>119,6</t>
+  </si>
+  <si>
+    <t>111,9</t>
+  </si>
+  <si>
+    <t>1.716</t>
+  </si>
+  <si>
+    <t>12.032</t>
+  </si>
+  <si>
+    <t>143,8</t>
+  </si>
+  <si>
+    <t>114,1</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>3.352</t>
+  </si>
+  <si>
+    <t>28,0</t>
+  </si>
+  <si>
+    <t>29,9</t>
+  </si>
+  <si>
+    <t>2,60</t>
+  </si>
+  <si>
+    <t>3,35</t>
+  </si>
+  <si>
+    <t>0,39</t>
+  </si>
+  <si>
+    <t>14,73</t>
+  </si>
+  <si>
+    <t>2025-M04</t>
+  </si>
+  <si>
+    <t>10.596</t>
+  </si>
+  <si>
+    <t>359.018</t>
+  </si>
+  <si>
+    <t>-17,4</t>
+  </si>
+  <si>
+    <t>1.984</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>255.243</t>
+  </si>
+  <si>
+    <t>1.341.240</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>38.047</t>
+  </si>
+  <si>
+    <t>90.735</t>
+  </si>
+  <si>
+    <t>16.139</t>
+  </si>
+  <si>
+    <t>102.825</t>
+  </si>
+  <si>
+    <t>24.100</t>
+  </si>
+  <si>
+    <t>142.547</t>
+  </si>
+  <si>
+    <t>176.957</t>
+  </si>
+  <si>
+    <t>1.005.133</t>
   </si>
 </sst>
 </file>
@@ -2609,15 +2627,15 @@
       <selection activeCell="C2" sqref="C2:G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="69.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="21"/>
+    <col min="2" max="2" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2637,22 +2655,22 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
+        <v>423</v>
+      </c>
+      <c r="K1" t="s">
+        <v>424</v>
+      </c>
+      <c r="L1" t="s">
         <v>425</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>426</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>427</v>
       </c>
-      <c r="M1" t="s">
-        <v>428</v>
-      </c>
-      <c r="N1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2660,40 +2678,40 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>430</v>
+        <v>529</v>
       </c>
       <c r="D2" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>473</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>430</v>
+        <v>529</v>
       </c>
       <c r="K2" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="L2" t="s">
-        <v>185</v>
+        <v>473</v>
       </c>
       <c r="M2" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="N2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2701,40 +2719,40 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F3" t="s">
         <v>157</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I3" t="s">
         <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="K3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M3" t="s">
         <v>157</v>
       </c>
       <c r="N3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2742,40 +2760,40 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2783,40 +2801,40 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I5" t="s">
         <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2824,40 +2842,40 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="N6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2865,40 +2883,40 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I7" t="s">
         <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L7" t="s">
         <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="N7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2906,40 +2924,40 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D8" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E8" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F8" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K8" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L8" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M8" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="N8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2947,40 +2965,40 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D9" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E9" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F9" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I9" t="s">
         <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K9" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L9" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M9" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="N9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2988,40 +3006,40 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D10" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E10" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F10" t="s">
         <v>222</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K10" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L10" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M10" t="s">
         <v>222</v>
       </c>
       <c r="N10" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3029,40 +3047,40 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D11" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E11" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I11" t="s">
         <v>34</v>
       </c>
       <c r="J11" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K11" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L11" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="N11" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3070,40 +3088,40 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D12" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E12" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F12" t="s">
         <v>191</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I12" t="s">
         <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K12" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L12" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M12" t="s">
         <v>191</v>
       </c>
       <c r="N12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3111,40 +3129,40 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D13" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F13" t="s">
         <v>191</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I13" t="s">
         <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K13" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M13" t="s">
         <v>191</v>
       </c>
       <c r="N13" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3152,40 +3170,40 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D14" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E14" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F14" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I14" t="s">
         <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K14" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L14" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M14" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="N14" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3193,40 +3211,40 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="D15" t="s">
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="F15" t="s">
         <v>39</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="I15" t="s">
         <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="K15" t="s">
         <v>39</v>
       </c>
       <c r="L15" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="M15" t="s">
         <v>39</v>
       </c>
       <c r="N15" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3234,40 +3252,40 @@
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="F16" t="s">
         <v>39</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="I16" t="s">
         <v>42</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="K16" t="s">
         <v>39</v>
       </c>
       <c r="L16" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="M16" t="s">
         <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3275,40 +3293,40 @@
         <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="I17" t="s">
         <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="K17" t="s">
         <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="M17" t="s">
         <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3316,40 +3334,40 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D18" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E18" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F18" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I18" t="s">
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="K18" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="L18" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M18" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="N18" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3357,40 +3375,40 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="D19" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="E19" t="s">
-        <v>415</v>
+        <v>535</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="I19" t="s">
         <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="K19" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="L19" t="s">
-        <v>415</v>
+        <v>535</v>
       </c>
       <c r="M19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N19" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3398,40 +3416,40 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="D20" t="s">
-        <v>487</v>
+        <v>537</v>
       </c>
       <c r="E20" t="s">
-        <v>435</v>
+        <v>190</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>522</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="I20" t="s">
         <v>46</v>
       </c>
       <c r="J20" t="s">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="K20" t="s">
-        <v>487</v>
+        <v>537</v>
       </c>
       <c r="L20" t="s">
-        <v>435</v>
+        <v>190</v>
       </c>
       <c r="M20" t="s">
-        <v>121</v>
+        <v>522</v>
       </c>
       <c r="N20" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3439,40 +3457,40 @@
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>488</v>
+        <v>538</v>
       </c>
       <c r="D21" t="s">
-        <v>489</v>
+        <v>539</v>
       </c>
       <c r="E21" t="s">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="F21" t="s">
-        <v>491</v>
+        <v>55</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="I21" t="s">
         <v>47</v>
       </c>
       <c r="J21" t="s">
-        <v>488</v>
+        <v>538</v>
       </c>
       <c r="K21" t="s">
-        <v>489</v>
+        <v>539</v>
       </c>
       <c r="L21" t="s">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="M21" t="s">
-        <v>491</v>
+        <v>55</v>
       </c>
       <c r="N21" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3480,40 +3498,40 @@
         <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="D22" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="E22" t="s">
-        <v>277</v>
+        <v>543</v>
       </c>
       <c r="F22" t="s">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="I22" t="s">
         <v>48</v>
       </c>
       <c r="J22" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="K22" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="L22" t="s">
-        <v>277</v>
+        <v>543</v>
       </c>
       <c r="M22" t="s">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="N22" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3521,40 +3539,40 @@
         <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="D23" t="s">
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>472</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>472</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="I23" t="s">
         <v>411</v>
       </c>
       <c r="J23" t="s">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="K23" t="s">
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="L23" t="s">
-        <v>107</v>
+        <v>472</v>
       </c>
       <c r="M23" t="s">
-        <v>105</v>
+        <v>472</v>
       </c>
       <c r="N23" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3562,40 +3580,40 @@
         <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="D24" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="E24" t="s">
-        <v>280</v>
+        <v>548</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="I24" t="s">
         <v>412</v>
       </c>
       <c r="J24" t="s">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="K24" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="L24" t="s">
-        <v>280</v>
+        <v>548</v>
       </c>
       <c r="M24" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="N24" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3603,40 +3621,40 @@
         <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="D25" t="s">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F25" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="I25" t="s">
         <v>198</v>
       </c>
       <c r="J25" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="K25" t="s">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L25" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="M25" t="s">
         <v>29</v>
       </c>
       <c r="N25" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3644,40 +3662,40 @@
         <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>501</v>
+        <v>551</v>
       </c>
       <c r="D26" t="s">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="E26" t="s">
-        <v>503</v>
+        <v>186</v>
       </c>
       <c r="F26" t="s">
         <v>29</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="I26" t="s">
         <v>201</v>
       </c>
       <c r="J26" t="s">
-        <v>501</v>
+        <v>551</v>
       </c>
       <c r="K26" t="s">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="L26" t="s">
-        <v>503</v>
+        <v>186</v>
       </c>
       <c r="M26" t="s">
         <v>29</v>
       </c>
       <c r="N26" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3685,40 +3703,40 @@
         <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="D27" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="E27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F27" t="s">
         <v>414</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="I27" t="s">
         <v>205</v>
       </c>
       <c r="J27" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="K27" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="L27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M27" t="s">
         <v>414</v>
       </c>
       <c r="N27" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3726,40 +3744,40 @@
         <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="D28" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E28" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="F28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I28" t="s">
         <v>54</v>
       </c>
       <c r="J28" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="K28" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="L28" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="M28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N28" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3767,10 +3785,10 @@
         <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="D29" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="E29" t="s">
         <v>281</v>
@@ -3779,16 +3797,16 @@
         <v>122</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I29" t="s">
         <v>56</v>
       </c>
       <c r="J29" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="K29" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="L29" t="s">
         <v>281</v>
@@ -3797,10 +3815,10 @@
         <v>122</v>
       </c>
       <c r="N29" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3808,40 +3826,40 @@
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="D30" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="E30" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="F30" t="s">
         <v>162</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I30" t="s">
         <v>57</v>
       </c>
       <c r="J30" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="K30" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="L30" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="M30" t="s">
         <v>162</v>
       </c>
       <c r="N30" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3849,40 +3867,40 @@
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="D31" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="E31" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="F31" t="s">
         <v>278</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I31" t="s">
         <v>58</v>
       </c>
       <c r="J31" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="K31" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="L31" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="M31" t="s">
         <v>278</v>
       </c>
       <c r="N31" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3890,40 +3908,40 @@
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="D32" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="E32" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="F32" t="s">
         <v>226</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I32" t="s">
         <v>59</v>
       </c>
       <c r="J32" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="K32" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="L32" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="M32" t="s">
         <v>226</v>
       </c>
       <c r="N32" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3931,40 +3949,40 @@
         <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="D33" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="E33" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="F33" t="s">
         <v>185</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I33" t="s">
         <v>60</v>
       </c>
       <c r="J33" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="K33" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="L33" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="M33" t="s">
         <v>185</v>
       </c>
       <c r="N33" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3972,40 +3990,40 @@
         <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="D34" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="E34" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="F34" t="s">
-        <v>527</v>
+        <v>556</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="I34" t="s">
         <v>61</v>
       </c>
       <c r="J34" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="K34" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="L34" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="M34" t="s">
-        <v>527</v>
+        <v>556</v>
       </c>
       <c r="N34" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4013,40 +4031,40 @@
         <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>528</v>
+        <v>557</v>
       </c>
       <c r="D35" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="E35" t="s">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="F35" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="I35" t="s">
         <v>62</v>
       </c>
       <c r="J35" t="s">
-        <v>528</v>
+        <v>557</v>
       </c>
       <c r="K35" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="L35" t="s">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="M35" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="N35" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4054,40 +4072,40 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="D36" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="E36" t="s">
         <v>234</v>
       </c>
       <c r="F36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I36" t="s">
         <v>7</v>
       </c>
       <c r="J36" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="K36" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="L36" t="s">
         <v>234</v>
       </c>
       <c r="M36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N36" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4095,7 +4113,7 @@
         <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="D37" t="s">
         <v>243</v>
@@ -4107,13 +4125,13 @@
         <v>43</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I37" t="s">
         <v>63</v>
       </c>
       <c r="J37" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="K37" t="s">
         <v>243</v>
@@ -4125,10 +4143,10 @@
         <v>43</v>
       </c>
       <c r="N37" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4136,10 +4154,10 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="D38" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E38" t="s">
         <v>43</v>
@@ -4148,16 +4166,16 @@
         <v>234</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I38" t="s">
         <v>8</v>
       </c>
       <c r="J38" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="K38" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L38" t="s">
         <v>43</v>
@@ -4166,10 +4184,10 @@
         <v>234</v>
       </c>
       <c r="N38" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4186,13 +4204,13 @@
         <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I39" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="J39" t="s">
         <v>29</v>
@@ -4204,13 +4222,13 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="N39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4218,40 +4236,40 @@
         <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>538</v>
+        <v>507</v>
       </c>
       <c r="D40" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="E40" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="F40" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I40" t="s">
         <v>65</v>
       </c>
       <c r="J40" t="s">
-        <v>538</v>
+        <v>507</v>
       </c>
       <c r="K40" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="L40" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="M40" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N40" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4259,40 +4277,40 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="D41" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="E41" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="F41" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>468</v>
+        <v>565</v>
       </c>
       <c r="I41" t="s">
         <v>9</v>
       </c>
       <c r="J41" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="K41" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="L41" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="M41" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="N41" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4300,40 +4318,40 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="D42" t="s">
-        <v>546</v>
+        <v>511</v>
       </c>
       <c r="E42" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F42" t="s">
         <v>105</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I42" t="s">
         <v>10</v>
       </c>
       <c r="J42" t="s">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="K42" t="s">
-        <v>546</v>
+        <v>511</v>
       </c>
       <c r="L42" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M42" t="s">
         <v>105</v>
       </c>
       <c r="N42" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4344,16 +4362,16 @@
         <v>413</v>
       </c>
       <c r="D43" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="E43" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="F43" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I43" t="s">
         <v>66</v>
@@ -4362,19 +4380,19 @@
         <v>413</v>
       </c>
       <c r="K43" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="L43" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="M43" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="N43" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4382,40 +4400,40 @@
         <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
       <c r="D44" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="E44" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="F44" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I44" t="s">
         <v>67</v>
       </c>
       <c r="J44" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
       <c r="K44" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="L44" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="M44" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="N44" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4423,40 +4441,40 @@
         <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>566</v>
       </c>
       <c r="E45" t="s">
         <v>294</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>281</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I45" t="s">
         <v>68</v>
       </c>
       <c r="J45" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="K45" t="s">
-        <v>29</v>
+        <v>566</v>
       </c>
       <c r="L45" t="s">
         <v>294</v>
       </c>
       <c r="M45" t="s">
-        <v>29</v>
+        <v>281</v>
       </c>
       <c r="N45" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4464,40 +4482,40 @@
         <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>567</v>
       </c>
       <c r="E46" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>568</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I46" t="s">
         <v>69</v>
       </c>
       <c r="J46" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="K46" t="s">
-        <v>29</v>
+        <v>567</v>
       </c>
       <c r="L46" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="M46" t="s">
-        <v>29</v>
+        <v>568</v>
       </c>
       <c r="N46" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4505,40 +4523,40 @@
         <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>556</v>
+        <v>521</v>
       </c>
       <c r="D47" t="s">
-        <v>29</v>
+        <v>569</v>
       </c>
       <c r="E47" t="s">
         <v>185</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>570</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I47" t="s">
         <v>70</v>
       </c>
       <c r="J47" t="s">
-        <v>556</v>
+        <v>521</v>
       </c>
       <c r="K47" t="s">
-        <v>29</v>
+        <v>569</v>
       </c>
       <c r="L47" t="s">
         <v>185</v>
       </c>
       <c r="M47" t="s">
-        <v>29</v>
+        <v>570</v>
       </c>
       <c r="N47" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4546,40 +4564,40 @@
         <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="D48" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="E48" t="s">
-        <v>280</v>
+        <v>573</v>
       </c>
       <c r="F48" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>468</v>
+        <v>565</v>
       </c>
       <c r="I48" t="s">
         <v>71</v>
       </c>
       <c r="J48" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="K48" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="L48" t="s">
-        <v>280</v>
+        <v>573</v>
       </c>
       <c r="M48" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="N48" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4587,40 +4605,40 @@
         <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="D49" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="E49" t="s">
-        <v>562</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>468</v>
+        <v>565</v>
       </c>
       <c r="I49" t="s">
         <v>73</v>
       </c>
       <c r="J49" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="K49" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="L49" t="s">
-        <v>562</v>
+        <v>75</v>
       </c>
       <c r="M49" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="N49" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4628,40 +4646,40 @@
         <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="D50" t="s">
+        <v>578</v>
+      </c>
+      <c r="E50" t="s">
+        <v>282</v>
+      </c>
+      <c r="F50" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" s="21" t="s">
         <v>565</v>
-      </c>
-      <c r="E50" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" t="s">
-        <v>566</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>468</v>
       </c>
       <c r="I50" t="s">
         <v>74</v>
       </c>
       <c r="J50" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="K50" t="s">
+        <v>578</v>
+      </c>
+      <c r="L50" t="s">
+        <v>282</v>
+      </c>
+      <c r="M50" t="s">
+        <v>121</v>
+      </c>
+      <c r="N50" t="s">
         <v>565</v>
       </c>
-      <c r="L50" t="s">
-        <v>121</v>
-      </c>
-      <c r="M50" t="s">
-        <v>566</v>
-      </c>
-      <c r="N50" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4669,40 +4687,40 @@
         <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="D51" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="F51" t="s">
-        <v>196</v>
+        <v>573</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>468</v>
+        <v>565</v>
       </c>
       <c r="I51" t="s">
         <v>76</v>
       </c>
       <c r="J51" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="K51" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="L51" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="M51" t="s">
-        <v>196</v>
+        <v>573</v>
       </c>
       <c r="N51" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4710,40 +4728,40 @@
         <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="D52" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="E52" t="s">
-        <v>571</v>
+        <v>196</v>
       </c>
       <c r="F52" t="s">
-        <v>422</v>
+        <v>230</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>468</v>
+        <v>565</v>
       </c>
       <c r="I52" t="s">
         <v>77</v>
       </c>
       <c r="J52" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="K52" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="L52" t="s">
-        <v>571</v>
+        <v>196</v>
       </c>
       <c r="M52" t="s">
-        <v>422</v>
+        <v>230</v>
       </c>
       <c r="N52" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4751,10 +4769,10 @@
         <v>78</v>
       </c>
       <c r="C53" s="53" t="s">
-        <v>572</v>
+        <v>524</v>
       </c>
       <c r="D53" s="53" t="s">
-        <v>573</v>
+        <v>525</v>
       </c>
       <c r="E53" t="s">
         <v>190</v>
@@ -4763,16 +4781,16 @@
         <v>122</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I53" t="s">
         <v>78</v>
       </c>
       <c r="J53" t="s">
-        <v>572</v>
+        <v>524</v>
       </c>
       <c r="K53" t="s">
-        <v>573</v>
+        <v>525</v>
       </c>
       <c r="L53" t="s">
         <v>190</v>
@@ -4781,10 +4799,10 @@
         <v>122</v>
       </c>
       <c r="N53" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4792,40 +4810,40 @@
         <v>79</v>
       </c>
       <c r="C54" s="53" t="s">
-        <v>574</v>
+        <v>526</v>
       </c>
       <c r="D54" s="53" t="s">
-        <v>575</v>
+        <v>527</v>
       </c>
       <c r="E54" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F54" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I54" t="s">
         <v>79</v>
       </c>
       <c r="J54" t="s">
-        <v>574</v>
+        <v>526</v>
       </c>
       <c r="K54" t="s">
-        <v>575</v>
+        <v>527</v>
       </c>
       <c r="L54" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M54" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="N54" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
   </sheetData>
@@ -4841,22 +4859,22 @@
   </sheetPr>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>80</v>
       </c>
@@ -4866,7 +4884,7 @@
       <c r="E1" s="61"/>
       <c r="F1" s="61"/>
     </row>
-    <row r="2" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -4882,7 +4900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>18</v>
@@ -4900,7 +4918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -4913,37 +4931,37 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="str">
         <f>DATOSPYTHON!B2</f>
         <v>Índice de producción industrial</v>
       </c>
       <c r="B5" s="15" t="str">
         <f>DATOSPYTHON!C2</f>
-        <v>102,2</v>
+        <v>105,2</v>
       </c>
       <c r="C5" s="16" t="str">
         <f>DATOSPYTHON!D2</f>
-        <v>101,2</v>
+        <v>102,3</v>
       </c>
       <c r="D5" s="17" t="str">
         <f>DATOSPYTHON!E2</f>
-        <v>3,9</v>
+        <v>6,6</v>
       </c>
       <c r="E5" s="18" t="str">
         <f>DATOSPYTHON!F2</f>
-        <v>-1,9</v>
+        <v>1,0</v>
       </c>
       <c r="F5" s="22" t="str">
         <f>DATOSPYTHON!G2</f>
-        <v>2025-M02</v>
+        <v>2025-M03</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>DATOSPYTHON!G2</f>
-        <v>2025-M02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2025-M03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
         <f>DATOSPYTHON!B3</f>
         <v>Índices de cifras de negocios en la industria</v>
@@ -4970,10 +4988,10 @@
       </c>
       <c r="G6" s="2" t="str">
         <f>DATOSPYTHON!G22</f>
-        <v>2025-M02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2025-M03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>DATOSPYTHON!B4</f>
         <v>Licitación oficial total</v>
@@ -5000,10 +5018,10 @@
       </c>
       <c r="G7" s="2" t="str">
         <f>DATOSPYTHON!G23</f>
-        <v>2025-M02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2025-M03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>DATOSPYTHON!B5</f>
         <v>Viviendas protegidas. Nº calificaciones provisionales</v>
@@ -5033,7 +5051,7 @@
         <v>2025-M03</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>DATOSPYTHON!B6</f>
         <v>Viviendas iniciadas libres</v>
@@ -5063,7 +5081,7 @@
         <v>2025-M02</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>DATOSPYTHON!B7</f>
         <v>Viviendas protegidas. Nº calificaciones definitivas</v>
@@ -5093,7 +5111,7 @@
         <v>2025-M02</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>DATOSPYTHON!B8</f>
         <v>Viviendas terminadas libres</v>
@@ -5123,7 +5141,7 @@
         <v>2024-M12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>DATOSPYTHON!B9</f>
         <v>Superficie a construir de obra nueva para uso no residencial según visados (m²)</v>
@@ -5153,7 +5171,7 @@
         <v>2024-M12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>DATOSPYTHON!B10</f>
         <v>Índice de cifra de negocios en servicios</v>
@@ -5179,7 +5197,7 @@
         <v>2025-M02</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>DATOSPYTHON!B11</f>
         <v>Inversión extranjera. Flujos de inversión bruta total (Miles de euros)</v>
@@ -5209,7 +5227,7 @@
         <v>2024-M12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>DATOSPYTHON!B12</f>
         <v>Viajeros en establecimientos hoteleros</v>
@@ -5243,7 +5261,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>DATOSPYTHON!B13</f>
         <v>Pernoctaciones en establecimientos hoteleros</v>
@@ -5269,7 +5287,7 @@
         <v>2025-M03</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>DATOSPYTHON!B14</f>
         <v>Grado de ocupación por plaza en establecimientos hoteleros (%)</v>
@@ -5302,14 +5320,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>DATOSPYTHON!B15</f>
         <v>Turistas totales</v>
       </c>
       <c r="B18" s="54" t="str">
         <f>DATOSPYTHON!C15</f>
-        <v>7.189.824</v>
+        <v>6.450.720</v>
       </c>
       <c r="C18" s="16" t="str">
         <f>DATOSPYTHON!D15</f>
@@ -5317,7 +5335,7 @@
       </c>
       <c r="D18" s="17" t="str">
         <f>DATOSPYTHON!E15</f>
-        <v>3,4</v>
+        <v>1,3</v>
       </c>
       <c r="E18" s="18" t="str">
         <f>DATOSPYTHON!F15</f>
@@ -5325,21 +5343,21 @@
       </c>
       <c r="F18" s="22" t="str">
         <f>DATOSPYTHON!G15</f>
-        <v>2024-T4</v>
+        <v>2025-T1</v>
       </c>
       <c r="G18" s="2" t="str">
         <f>DATOSPYTHON!G10</f>
         <v>2025-M02</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>DATOSPYTHON!B16</f>
         <v>Estancia media de los turistas (Días)</v>
       </c>
       <c r="B19" s="15" t="str">
         <f>DATOSPYTHON!C16</f>
-        <v>5,2</v>
+        <v>6,2</v>
       </c>
       <c r="C19" s="16" t="str">
         <f>DATOSPYTHON!D16</f>
@@ -5347,7 +5365,7 @@
       </c>
       <c r="D19" s="17" t="str">
         <f>DATOSPYTHON!E16</f>
-        <v>5,2</v>
+        <v>-2,7</v>
       </c>
       <c r="E19" s="18" t="str">
         <f>DATOSPYTHON!F16</f>
@@ -5355,21 +5373,21 @@
       </c>
       <c r="F19" s="22" t="str">
         <f>DATOSPYTHON!G16</f>
-        <v>2024-T4</v>
+        <v>2025-T1</v>
       </c>
       <c r="G19" s="2" t="str">
         <f>DATOSPYTHON!G11</f>
         <v>2024-T4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>DATOSPYTHON!B17</f>
         <v>Gasto medio diario por turista (Euros)</v>
       </c>
       <c r="B20" s="15" t="str">
         <f>DATOSPYTHON!C17</f>
-        <v>82,9</v>
+        <v>83,4</v>
       </c>
       <c r="C20" s="16" t="str">
         <f>DATOSPYTHON!D17</f>
@@ -5377,7 +5395,7 @@
       </c>
       <c r="D20" s="17" t="str">
         <f>DATOSPYTHON!E17</f>
-        <v>6,6</v>
+        <v>6,5</v>
       </c>
       <c r="E20" s="18" t="str">
         <f>DATOSPYTHON!F17</f>
@@ -5385,14 +5403,14 @@
       </c>
       <c r="F20" s="22" t="str">
         <f>DATOSPYTHON!G17</f>
-        <v>2024-T4</v>
+        <v>2025-T1</v>
       </c>
       <c r="G20" s="2" t="str">
         <f>DATOSPYTHON!G12</f>
         <v>2025-M03</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>12</v>
       </c>
@@ -5405,7 +5423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>DATOSPYTHON!B18</f>
         <v>Matriculación de turismos</v>
@@ -5431,148 +5449,148 @@
         <v>2025-M03</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>DATOSPYTHON!B19</f>
         <v>Consumo de gasolina (Tm)</v>
       </c>
       <c r="B23" s="15" t="str">
         <f>DATOSPYTHON!C19</f>
-        <v>74.554</v>
+        <v>77.863</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="17" t="str">
         <f>DATOSPYTHON!E19</f>
-        <v>7,6</v>
+        <v>3,6</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="22" t="str">
         <f>DATOSPYTHON!G19</f>
-        <v>2025-M02</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>2025-M03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>DATOSPYTHON!B20</f>
         <v>Consumo de gasóleo A. Automoción (Tm)</v>
       </c>
       <c r="B24" s="15" t="str">
         <f>DATOSPYTHON!C20</f>
-        <v>270.655</v>
+        <v>289.011</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="17" t="str">
         <f>DATOSPYTHON!E20</f>
-        <v>1,2</v>
+        <v>1,4</v>
       </c>
       <c r="E24" s="37" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="22" t="str">
         <f>DATOSPYTHON!G20</f>
-        <v>2025-M02</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>2025-M03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>DATOSPYTHON!B21</f>
         <v>Consumo de gasóleo B. Agrícola y pesca (Tm)</v>
       </c>
       <c r="B25" s="15" t="str">
         <f>DATOSPYTHON!C21</f>
-        <v>52.053</v>
+        <v>46.266</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="17" t="str">
         <f>DATOSPYTHON!E21</f>
-        <v>10,4</v>
+        <v>-9,5</v>
       </c>
       <c r="E25" s="37" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="22" t="str">
         <f>DATOSPYTHON!G21</f>
-        <v>2025-M02</v>
+        <v>2025-M03</v>
       </c>
       <c r="G25" s="2" t="str">
         <f>DATOSPYTHON!G13</f>
         <v>2025-M03</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="str">
         <f>DATOSPYTHON!B22</f>
         <v>Consumo de gasóleo C. Calefacción</v>
       </c>
       <c r="B26" s="15" t="str">
         <f>DATOSPYTHON!C22</f>
-        <v>8.138</v>
+        <v>8.408</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="17" t="str">
         <f>DATOSPYTHON!E22</f>
-        <v>6,2</v>
+        <v>24,1</v>
       </c>
       <c r="E26" s="37" t="s">
         <v>39</v>
       </c>
       <c r="F26" s="22" t="str">
         <f>DATOSPYTHON!G22</f>
-        <v>2025-M02</v>
+        <v>2025-M03</v>
       </c>
       <c r="G26" s="2" t="str">
         <f>DATOSPYTHON!G15</f>
-        <v>2024-T4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2025-T1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="str">
         <f>DATOSPYTHON!B23</f>
         <v>Índice de comercio al por menor</v>
       </c>
       <c r="B27" s="15" t="str">
         <f>DATOSPYTHON!C23</f>
-        <v>110,0</v>
+        <v>109,6</v>
       </c>
       <c r="C27" s="16" t="str">
         <f>DATOSPYTHON!D23</f>
-        <v>109,0</v>
+        <v>108,8</v>
       </c>
       <c r="D27" s="17" t="str">
         <f>DATOSPYTHON!E23</f>
-        <v>4,3</v>
+        <v>3,4</v>
       </c>
       <c r="E27" s="18" t="str">
         <f>DATOSPYTHON!F23</f>
-        <v>3,2</v>
+        <v>3,4</v>
       </c>
       <c r="F27" s="22" t="str">
         <f>DATOSPYTHON!G23</f>
-        <v>2025-M02</v>
+        <v>2025-M03</v>
       </c>
       <c r="G27" s="2" t="str">
         <f>DATOSPYTHON!G16</f>
-        <v>2024-T4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2025-T1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="str">
         <f>DATOSPYTHON!B24</f>
         <v>Índice ventas en grandes superficies</v>
       </c>
       <c r="B28" s="15" t="str">
         <f>DATOSPYTHON!C24</f>
-        <v>102,3</v>
+        <v>101,3</v>
       </c>
       <c r="C28" s="16" t="str">
         <f>DATOSPYTHON!D24</f>
@@ -5580,80 +5598,80 @@
       </c>
       <c r="D28" s="17" t="str">
         <f>DATOSPYTHON!E24</f>
-        <v>-0,3</v>
+        <v>-3,3</v>
       </c>
       <c r="E28" s="18" t="str">
         <f>DATOSPYTHON!F24</f>
-        <v>0,3</v>
+        <v>1,4</v>
       </c>
       <c r="F28" s="22" t="str">
         <f>DATOSPYTHON!G24</f>
-        <v>2025-M02</v>
+        <v>2025-M03</v>
       </c>
       <c r="G28" s="2" t="str">
         <f>DATOSPYTHON!G18</f>
         <v>2025-M03</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="str">
         <f>DATOSPYTHON!B25</f>
         <v>Índice de producción industrial. Bienes de consumo</v>
       </c>
       <c r="B29" s="15" t="str">
         <f>DATOSPYTHON!C25</f>
-        <v>95,1</v>
+        <v>97,9</v>
       </c>
       <c r="C29" s="16" t="str">
         <f>DATOSPYTHON!D25</f>
-        <v>103,2</v>
+        <v>103,1</v>
       </c>
       <c r="D29" s="17" t="str">
         <f>DATOSPYTHON!E25</f>
-        <v>2,6</v>
+        <v>1,9</v>
       </c>
       <c r="E29" s="18">
         <v>6.3</v>
       </c>
       <c r="F29" s="22" t="str">
         <f>DATOSPYTHON!G25</f>
-        <v>2025-M02</v>
+        <v>2025-M03</v>
       </c>
       <c r="G29" s="2" t="str">
         <f>DATOSPYTHON!G19</f>
-        <v>2025-M02</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2025-M03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="str">
         <f>DATOSPYTHON!B26</f>
         <v>Índice de producción industrial. Bienes de equipo</v>
       </c>
       <c r="B30" s="15" t="str">
         <f>DATOSPYTHON!C26</f>
-        <v>120,1</v>
+        <v>119,6</v>
       </c>
       <c r="C30" s="16" t="str">
         <f>DATOSPYTHON!D26</f>
-        <v>109,5</v>
+        <v>111,9</v>
       </c>
       <c r="D30" s="17" t="str">
         <f>DATOSPYTHON!E26</f>
-        <v>3,5</v>
+        <v>1,9</v>
       </c>
       <c r="E30" s="18">
         <v>5.3</v>
       </c>
       <c r="F30" s="22" t="str">
         <f>DATOSPYTHON!G26</f>
-        <v>2025-M02</v>
+        <v>2025-M03</v>
       </c>
       <c r="G30" s="2" t="str">
         <f>DATOSPYTHON!G20</f>
-        <v>2025-M02</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2025-M03</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="str">
         <f>DATOSPYTHON!B27</f>
         <v>Indicador de confianza empresarial</v>
@@ -5680,10 +5698,10 @@
       </c>
       <c r="G31" s="2" t="str">
         <f>DATOSPYTHON!G21</f>
-        <v>2025-M02</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2025-M03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>81</v>
       </c>
@@ -5696,7 +5714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="str">
         <f>DATOSPYTHON!B28</f>
         <v>Depósitos del sector privado en el sistema bancario (Mill. euros)</v>
@@ -5722,7 +5740,7 @@
         <v>2024-T4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="str">
         <f>DATOSPYTHON!B29</f>
         <v>Créditos al sector privado del sistema bancario (Mill. euros)</v>
@@ -5749,13 +5767,13 @@
       </c>
       <c r="G34" s="2" t="str">
         <f>DATOSPYTHON!G24</f>
-        <v>2025-M02</v>
+        <v>2025-M03</v>
       </c>
       <c r="H34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="str">
         <f>DATOSPYTHON!B30</f>
         <v>Número de hipotecas constituidas urbanas</v>
@@ -5782,13 +5800,13 @@
       </c>
       <c r="G35" s="2" t="str">
         <f>DATOSPYTHON!G25</f>
-        <v>2025-M02</v>
+        <v>2025-M03</v>
       </c>
       <c r="H35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="str">
         <f>DATOSPYTHON!B31</f>
         <v>Importe total hipotecado en fincas urbanas (Miles de euros)</v>
@@ -5815,10 +5833,10 @@
       </c>
       <c r="G36" s="2" t="str">
         <f>DATOSPYTHON!G26</f>
-        <v>2025-M02</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2025-M03</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="str">
         <f>DATOSPYTHON!B32</f>
         <v>Número de hipotecas constituidas rústicas</v>
@@ -5848,7 +5866,7 @@
         <v>2025-T2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="str">
         <f>DATOSPYTHON!B33</f>
         <v>Importe total hipotecado en fincas rústicas (Miles de euros)</v>
@@ -5878,60 +5896,60 @@
         <v>2024-T4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="str">
         <f>DATOSPYTHON!B34</f>
         <v>Personas físicas sin actividad empresarial concursadas (Deudores)</v>
       </c>
       <c r="B39" s="15" t="str">
         <f>DATOSPYTHON!C34</f>
-        <v>1.377</v>
+        <v>1.716</v>
       </c>
       <c r="C39" s="16" t="str">
         <f>DATOSPYTHON!D34</f>
-        <v>10.570</v>
+        <v>12.032</v>
       </c>
       <c r="D39" s="17" t="str">
         <f>DATOSPYTHON!E34</f>
-        <v>241,7</v>
+        <v>143,8</v>
       </c>
       <c r="E39" s="18" t="str">
         <f>DATOSPYTHON!F34</f>
-        <v>186,0</v>
+        <v>114,1</v>
       </c>
       <c r="F39" s="22" t="str">
         <f>DATOSPYTHON!G34</f>
-        <v>2024-T4</v>
+        <v>2025-T1</v>
       </c>
       <c r="G39" s="2" t="str">
         <f>DATOSPYTHON!G29</f>
         <v>2024-T4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="str">
         <f>DATOSPYTHON!B35</f>
         <v>Empresas concursadas (Deudores)</v>
       </c>
       <c r="B40" s="15" t="str">
         <f>DATOSPYTHON!C35</f>
-        <v>286</v>
+        <v>407</v>
       </c>
       <c r="C40" s="16" t="str">
         <f>DATOSPYTHON!D35</f>
-        <v>2.799</v>
+        <v>3.352</v>
       </c>
       <c r="D40" s="17" t="str">
         <f>DATOSPYTHON!E35</f>
-        <v>49,0</v>
+        <v>28,0</v>
       </c>
       <c r="E40" s="18" t="str">
         <f>DATOSPYTHON!F35</f>
-        <v>34,1</v>
+        <v>29,9</v>
       </c>
       <c r="F40" s="22" t="str">
         <f>DATOSPYTHON!G35</f>
-        <v>2024-T4</v>
+        <v>2025-T1</v>
       </c>
       <c r="G40" s="2" t="str">
         <f>DATOSPYTHON!G30</f>
@@ -5941,7 +5959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>82</v>
       </c>
@@ -5954,7 +5972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="str">
         <f>DATOSPYTHON!B36</f>
         <v>IPC Índice general</v>
@@ -5980,7 +5998,7 @@
         <v>2025-M03</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="str">
         <f>DATOSPYTHON!B37</f>
         <v>IPC subyacente</v>
@@ -6010,7 +6028,7 @@
         <v>2025-M02</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="str">
         <f>DATOSPYTHON!B38</f>
         <v>IPC Alimentación y bebidas no alcohólicas</v>
@@ -6040,7 +6058,7 @@
         <v>2025-M02</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="str">
         <f>DATOSPYTHON!B39</f>
         <v>IPC Vivienda</v>
@@ -6070,7 +6088,7 @@
         <v>2025-M02</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="str">
         <f>DATOSPYTHON!B40</f>
         <v>Precio medio del m² en la vivienda libre (Euros)</v>
@@ -6097,37 +6115,37 @@
       </c>
       <c r="G46" s="2" t="str">
         <f>DATOSPYTHON!G34</f>
-        <v>2024-T4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2025-T1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="str">
         <f>DATOSPYTHON!B41</f>
         <v>Aumento salarial pactado</v>
       </c>
       <c r="B47" s="15" t="str">
         <f>DATOSPYTHON!C41</f>
-        <v>2,50</v>
+        <v>2,60</v>
       </c>
       <c r="C47" s="16" t="str">
         <f>DATOSPYTHON!D41</f>
-        <v>3,29</v>
+        <v>3,35</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
       <c r="F47" s="22" t="str">
         <f>DATOSPYTHON!G41</f>
-        <v>2025-M03</v>
+        <v>2025-M04</v>
       </c>
       <c r="G47" s="2" t="str">
         <f>DATOSPYTHON!G35</f>
-        <v>2024-T4</v>
+        <v>2025-T1</v>
       </c>
       <c r="H47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="str">
         <f>DATOSPYTHON!B42</f>
         <v>Índice de precios hoteleros</v>
@@ -6157,7 +6175,7 @@
         <v>2025-M03</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="str">
         <f>DATOSPYTHON!B43</f>
         <v>Tarifa media diaria en establecimientos hoteleros-ADR (Euros)</v>
@@ -6187,7 +6205,7 @@
         <v>2025-M03</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="str">
         <f>DATOSPYTHON!B44</f>
         <v>Ingresos por habitación disponible en establecimientos hoteleros-RevPAR (Euros)</v>
@@ -6217,7 +6235,7 @@
         <v>2025-M03</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>13</v>
       </c>
@@ -6230,7 +6248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="str">
         <f>DATOSPYTHON!B45</f>
         <v>Sociedades mercantiles constituidas</v>
@@ -6241,7 +6259,7 @@
       </c>
       <c r="C52" s="16" t="str">
         <f>DATOSPYTHON!D45</f>
-        <v>..</v>
+        <v>10.596</v>
       </c>
       <c r="D52" s="17" t="str">
         <f>DATOSPYTHON!E45</f>
@@ -6249,14 +6267,14 @@
       </c>
       <c r="E52" s="18" t="str">
         <f>DATOSPYTHON!F45</f>
-        <v>..</v>
+        <v>-0,8</v>
       </c>
       <c r="F52" s="22" t="str">
         <f>DATOSPYTHON!G45</f>
         <v>2025-M03</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="str">
         <f>DATOSPYTHON!B46</f>
         <v>Sociedades mercantiles constituidas. Capital desembolsado (Miles euros)</v>
@@ -6267,7 +6285,7 @@
       </c>
       <c r="C53" s="16" t="str">
         <f>DATOSPYTHON!D46</f>
-        <v>..</v>
+        <v>359.018</v>
       </c>
       <c r="D53" s="17" t="str">
         <f>DATOSPYTHON!E46</f>
@@ -6275,7 +6293,7 @@
       </c>
       <c r="E53" s="18" t="str">
         <f>DATOSPYTHON!F46</f>
-        <v>..</v>
+        <v>-17,4</v>
       </c>
       <c r="F53" s="22" t="str">
         <f>DATOSPYTHON!G46</f>
@@ -6286,7 +6304,7 @@
         <v>2025-M03</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="str">
         <f>DATOSPYTHON!B47</f>
         <v>Sociedades mercantiles disueltas</v>
@@ -6297,7 +6315,7 @@
       </c>
       <c r="C54" s="16" t="str">
         <f>DATOSPYTHON!D47</f>
-        <v>..</v>
+        <v>1.984</v>
       </c>
       <c r="D54" s="17" t="str">
         <f>DATOSPYTHON!E47</f>
@@ -6305,7 +6323,7 @@
       </c>
       <c r="E54" s="18" t="str">
         <f>DATOSPYTHON!F47</f>
-        <v>..</v>
+        <v>8,5</v>
       </c>
       <c r="F54" s="22" t="str">
         <f>DATOSPYTHON!G47</f>
@@ -6316,56 +6334,56 @@
         <v>2024-T4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="str">
         <f>DATOSPYTHON!B48</f>
         <v>Empresas inscritas en la Seguridad Social. Total</v>
       </c>
       <c r="B55" s="15" t="str">
         <f>DATOSPYTHON!C48</f>
-        <v>254.400</v>
+        <v>255.243</v>
       </c>
       <c r="C55" s="16" t="str">
         <f>DATOSPYTHON!D48</f>
-        <v>1.330.155</v>
+        <v>1.341.240</v>
       </c>
       <c r="D55" s="17" t="str">
         <f>DATOSPYTHON!E48</f>
-        <v>-0,3</v>
+        <v>0,6</v>
       </c>
       <c r="E55" s="18" t="str">
         <f>DATOSPYTHON!F48</f>
-        <v>-0,6</v>
+        <v>0,0</v>
       </c>
       <c r="F55" s="22" t="str">
         <f>DATOSPYTHON!G48</f>
-        <v>2025-M03</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2025-M04</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="str">
         <f>DATOSPYTHON!B49</f>
         <v>Empresas inscritas en la Seguridad Social. Agricultura</v>
       </c>
       <c r="B56" s="15" t="str">
         <f>DATOSPYTHON!C49</f>
-        <v>39.887</v>
+        <v>38.047</v>
       </c>
       <c r="C56" s="16" t="str">
         <f>DATOSPYTHON!D49</f>
-        <v>91.872</v>
+        <v>90.735</v>
       </c>
       <c r="D56" s="17" t="str">
         <f>DATOSPYTHON!E49</f>
-        <v>-2,1</v>
+        <v>-0,1</v>
       </c>
       <c r="E56" s="18" t="str">
         <f>DATOSPYTHON!F49</f>
-        <v>-2,5</v>
+        <v>-1,8</v>
       </c>
       <c r="F56" s="22" t="str">
         <f>DATOSPYTHON!G49</f>
-        <v>2025-M03</v>
+        <v>2025-M04</v>
       </c>
       <c r="G56" s="2" t="str">
         <f>DATOSPYTHON!G42</f>
@@ -6375,30 +6393,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="str">
         <f>DATOSPYTHON!B50</f>
         <v>Empresas inscritas en la Seguridad Social. Industria</v>
       </c>
       <c r="B57" s="15" t="str">
         <f>DATOSPYTHON!C50</f>
-        <v>16.097</v>
+        <v>16.139</v>
       </c>
       <c r="C57" s="16" t="str">
         <f>DATOSPYTHON!D50</f>
-        <v>102.678</v>
+        <v>102.825</v>
       </c>
       <c r="D57" s="17" t="str">
         <f>DATOSPYTHON!E50</f>
-        <v>-1,5</v>
+        <v>-1,4</v>
       </c>
       <c r="E57" s="18" t="str">
         <f>DATOSPYTHON!F50</f>
-        <v>-1,8</v>
+        <v>-1,5</v>
       </c>
       <c r="F57" s="22" t="str">
         <f>DATOSPYTHON!G50</f>
-        <v>2025-M03</v>
+        <v>2025-M04</v>
       </c>
       <c r="G57" s="2" t="str">
         <f>DATOSPYTHON!G43</f>
@@ -6408,30 +6426,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="str">
         <f>DATOSPYTHON!B51</f>
         <v>Empresas inscritas en la Seguridad Social. Construcción</v>
       </c>
       <c r="B58" s="15" t="str">
         <f>DATOSPYTHON!C51</f>
-        <v>23.960</v>
+        <v>24.100</v>
       </c>
       <c r="C58" s="16" t="str">
         <f>DATOSPYTHON!D51</f>
-        <v>142.014</v>
+        <v>142.547</v>
       </c>
       <c r="D58" s="17" t="str">
         <f>DATOSPYTHON!E51</f>
-        <v>3,3</v>
+        <v>1,4</v>
       </c>
       <c r="E58" s="18" t="str">
         <f>DATOSPYTHON!F51</f>
-        <v>0,8</v>
+        <v>0,6</v>
       </c>
       <c r="F58" s="22" t="str">
         <f>DATOSPYTHON!G51</f>
-        <v>2025-M03</v>
+        <v>2025-M04</v>
       </c>
       <c r="G58" s="2" t="str">
         <f>DATOSPYTHON!G44</f>
@@ -6441,30 +6459,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="str">
         <f>DATOSPYTHON!B52</f>
         <v>Empresas inscritas en la Seguridad Social. Servicios</v>
       </c>
       <c r="B59" s="15" t="str">
         <f>DATOSPYTHON!C52</f>
-        <v>174.456</v>
+        <v>176.957</v>
       </c>
       <c r="C59" s="16" t="str">
         <f>DATOSPYTHON!D52</f>
-        <v>993.591</v>
+        <v>1.005.133</v>
       </c>
       <c r="D59" s="17" t="str">
         <f>DATOSPYTHON!E52</f>
-        <v>-0,2</v>
+        <v>0,8</v>
       </c>
       <c r="E59" s="18" t="str">
         <f>DATOSPYTHON!F52</f>
-        <v>-0,5</v>
+        <v>0,3</v>
       </c>
       <c r="F59" s="22" t="str">
         <f>DATOSPYTHON!G52</f>
-        <v>2025-M03</v>
+        <v>2025-M04</v>
       </c>
       <c r="G59" s="2" t="str">
         <f>DATOSPYTHON!G45</f>
@@ -6474,7 +6492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>14</v>
       </c>
@@ -6487,7 +6505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="str">
         <f>DATOSPYTHON!B53</f>
         <v>Exportaciones (Miles euros)</v>
@@ -6520,7 +6538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="str">
         <f>DATOSPYTHON!B54</f>
         <v>Importaciones (Miles euros)</v>
@@ -6553,7 +6571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>15</v>
       </c>
@@ -6566,7 +6584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>95</v>
       </c>
@@ -6583,10 +6601,10 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>96</v>
       </c>
@@ -6603,10 +6621,10 @@
         <v>-6.34</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>97</v>
       </c>
@@ -6623,12 +6641,12 @@
         <v>-0.9</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="45" t="s">
-        <v>576</v>
+        <v>528</v>
       </c>
       <c r="B67" s="52">
         <v>3467820</v>
@@ -6643,10 +6661,10 @@
         <v>1.7</v>
       </c>
       <c r="F67" s="36" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
     </row>
@@ -6670,9 +6688,9 @@
       <selection activeCell="B286" sqref="B286:C286"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -6683,7 +6701,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -6694,7 +6712,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200101</v>
       </c>
@@ -6705,7 +6723,7 @@
         <v>2397.9934400000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200102</v>
       </c>
@@ -6716,7 +6734,7 @@
         <v>2426.1248500000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200103</v>
       </c>
@@ -6727,7 +6745,7 @@
         <v>2452.5019600000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>200104</v>
       </c>
@@ -6738,7 +6756,7 @@
         <v>2473.4921199999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>200105</v>
       </c>
@@ -6749,7 +6767,7 @@
         <v>2498.4009999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>200106</v>
       </c>
@@ -6760,7 +6778,7 @@
         <v>2513.7526499999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>200107</v>
       </c>
@@ -6771,7 +6789,7 @@
         <v>2518.29664</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>200108</v>
       </c>
@@ -6782,7 +6800,7 @@
         <v>2512.1206499999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>200109</v>
       </c>
@@ -6793,7 +6811,7 @@
         <v>2510.6538700000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>200110</v>
       </c>
@@ -6804,7 +6822,7 @@
         <v>2516.5906799999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>200111</v>
       </c>
@@ -6815,7 +6833,7 @@
         <v>2530.3280599999998</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>200112</v>
       </c>
@@ -6826,7 +6844,7 @@
         <v>2527.6663600000002</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>200201</v>
       </c>
@@ -6837,7 +6855,7 @@
         <v>2502.8209999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>200202</v>
       </c>
@@ -6848,7 +6866,7 @@
         <v>2532.7552500000002</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>200203</v>
       </c>
@@ -6859,7 +6877,7 @@
         <v>2553.0045300000002</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>200204</v>
       </c>
@@ -6870,7 +6888,7 @@
         <v>2577.4207299999998</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200205</v>
       </c>
@@ -6881,7 +6899,7 @@
         <v>2604.7691399999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>200206</v>
       </c>
@@ -6892,7 +6910,7 @@
         <v>2605.9554899999998</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>200207</v>
       </c>
@@ -6903,7 +6921,7 @@
         <v>2612.6127999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>200208</v>
       </c>
@@ -6914,7 +6932,7 @@
         <v>2607.26143</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>200209</v>
       </c>
@@ -6925,7 +6943,7 @@
         <v>2604.1880999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>200210</v>
       </c>
@@ -6936,7 +6954,7 @@
         <v>2607.4919599999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>200211</v>
       </c>
@@ -6947,7 +6965,7 @@
         <v>2627.4681700000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>200212</v>
       </c>
@@ -6958,7 +6976,7 @@
         <v>2622.2071700000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>200301</v>
       </c>
@@ -6969,7 +6987,7 @@
         <v>2611.9184799999998</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>200302</v>
       </c>
@@ -6980,7 +6998,7 @@
         <v>2652.4129499999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>200303</v>
       </c>
@@ -6991,7 +7009,7 @@
         <v>2684.59915</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>200304</v>
       </c>
@@ -7002,7 +7020,7 @@
         <v>2710.01865</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>200305</v>
       </c>
@@ -7013,7 +7031,7 @@
         <v>2732.96209</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>200306</v>
       </c>
@@ -7024,7 +7042,7 @@
         <v>2736.5287800000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>200307</v>
       </c>
@@ -7035,7 +7053,7 @@
         <v>2736.5977600000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>200308</v>
       </c>
@@ -7046,7 +7064,7 @@
         <v>2723.8355099999999</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>200309</v>
       </c>
@@ -7057,7 +7075,7 @@
         <v>2717.9566300000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>200310</v>
       </c>
@@ -7068,7 +7086,7 @@
         <v>2722.0832999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>200311</v>
       </c>
@@ -7079,7 +7097,7 @@
         <v>2733.5884000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>200312</v>
       </c>
@@ -7090,7 +7108,7 @@
         <v>2726.6974100000002</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>200401</v>
       </c>
@@ -7101,7 +7119,7 @@
         <v>2712.9897999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>200402</v>
       </c>
@@ -7112,7 +7130,7 @@
         <v>2754.7563</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>200403</v>
       </c>
@@ -7123,7 +7141,7 @@
         <v>2790.3422700000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>200404</v>
       </c>
@@ -7134,7 +7152,7 @@
         <v>2811.9662499999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>200405</v>
       </c>
@@ -7145,7 +7163,7 @@
         <v>2832.8906499999998</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>200406</v>
       </c>
@@ -7156,7 +7174,7 @@
         <v>2840.5877099999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>200407</v>
       </c>
@@ -7167,7 +7185,7 @@
         <v>2839.88654</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>200408</v>
       </c>
@@ -7178,7 +7196,7 @@
         <v>2815.1907200000001</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>200409</v>
       </c>
@@ -7189,7 +7207,7 @@
         <v>2810.1516700000002</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>200410</v>
       </c>
@@ -7200,7 +7218,7 @@
         <v>2819.14174</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>200411</v>
       </c>
@@ -7211,7 +7229,7 @@
         <v>2836.1920100000002</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>200412</v>
       </c>
@@ -7222,7 +7240,7 @@
         <v>2832.4744500000002</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>200501</v>
       </c>
@@ -7233,7 +7251,7 @@
         <v>2807.0846499999998</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>200502</v>
       </c>
@@ -7244,7 +7262,7 @@
         <v>2839.2883999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>200503</v>
       </c>
@@ -7255,7 +7273,7 @@
         <v>2863.55726</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>200504</v>
       </c>
@@ -7266,7 +7284,7 @@
         <v>2898.6157499999999</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>200505</v>
       </c>
@@ -7277,7 +7295,7 @@
         <v>2926.6039000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>200506</v>
       </c>
@@ -7288,7 +7306,7 @@
         <v>2950.9387200000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>200507</v>
       </c>
@@ -7299,7 +7317,7 @@
         <v>2969.2260500000002</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>200508</v>
       </c>
@@ -7310,7 +7328,7 @@
         <v>2957.6312200000002</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>200509</v>
       </c>
@@ -7321,7 +7339,7 @@
         <v>2953.66345</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>200510</v>
       </c>
@@ -7332,7 +7350,7 @@
         <v>2960.6174000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>200511</v>
       </c>
@@ -7343,7 +7361,7 @@
         <v>2976.33608</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>200512</v>
       </c>
@@ -7354,7 +7372,7 @@
         <v>2971.30125</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>200601</v>
       </c>
@@ -7365,7 +7383,7 @@
         <v>2950.5994300000002</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>200602</v>
       </c>
@@ -7376,7 +7394,7 @@
         <v>2978.3083999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>200603</v>
       </c>
@@ -7387,7 +7405,7 @@
         <v>3005.61697</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>200604</v>
       </c>
@@ -7398,7 +7416,7 @@
         <v>3028.95885</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>200605</v>
       </c>
@@ -7409,7 +7427,7 @@
         <v>3050.3700800000001</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>200606</v>
       </c>
@@ -7420,7 +7438,7 @@
         <v>3058.9591399999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>200607</v>
       </c>
@@ -7431,7 +7449,7 @@
         <v>3065.46603</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>200608</v>
       </c>
@@ -7442,7 +7460,7 @@
         <v>3045.1827899999998</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>200609</v>
       </c>
@@ -7453,7 +7471,7 @@
         <v>3044.7782400000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>200610</v>
       </c>
@@ -7464,7 +7482,7 @@
         <v>3056.2345999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>200611</v>
       </c>
@@ -7475,7 +7493,7 @@
         <v>3072.50866</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>200612</v>
       </c>
@@ -7486,7 +7504,7 @@
         <v>3076.9427000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>200701</v>
       </c>
@@ -7497,7 +7515,7 @@
         <v>3059.3752599999998</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>200702</v>
       </c>
@@ -7508,7 +7526,7 @@
         <v>3083.2979999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>200703</v>
       </c>
@@ -7519,7 +7537,7 @@
         <v>3114.1470199999999</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>200704</v>
       </c>
@@ -7530,7 +7548,7 @@
         <v>3131.87952</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>200705</v>
       </c>
@@ -7541,7 +7559,7 @@
         <v>3150.8036000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>200706</v>
       </c>
@@ -7552,7 +7570,7 @@
         <v>3151.88303</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>200707</v>
       </c>
@@ -7563,7 +7581,7 @@
         <v>3158.6697399999998</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>200708</v>
       </c>
@@ -7574,7 +7592,7 @@
         <v>3132.8021899999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>200709</v>
       </c>
@@ -7585,7 +7603,7 @@
         <v>3128.8287999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>200710</v>
       </c>
@@ -7596,7 +7614,7 @@
         <v>3133.1864599999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>200711</v>
       </c>
@@ -7607,7 +7625,7 @@
         <v>3142.8573900000001</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>200712</v>
       </c>
@@ -7618,7 +7636,7 @@
         <v>3139.2317600000001</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>200801</v>
       </c>
@@ -7629,7 +7647,7 @@
         <v>3102.6084099999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>200802</v>
       </c>
@@ -7640,7 +7658,7 @@
         <v>3119.6327999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>200803</v>
       </c>
@@ -7651,7 +7669,7 @@
         <v>3148.1849000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>200804</v>
       </c>
@@ -7662,7 +7680,7 @@
         <v>3155.91644</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>200805</v>
       </c>
@@ -7673,7 +7691,7 @@
         <v>3155.8032499999999</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>200806</v>
       </c>
@@ -7684,7 +7702,7 @@
         <v>3121.3964500000002</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>200807</v>
       </c>
@@ -7695,7 +7713,7 @@
         <v>3102.3802099999998</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>200808</v>
       </c>
@@ -7706,7 +7724,7 @@
         <v>3063.0752499999999</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>200809</v>
       </c>
@@ -7717,7 +7735,7 @@
         <v>3040.2142899999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>200810</v>
       </c>
@@ -7728,7 +7746,7 @@
         <v>3020.0753199999999</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>200811</v>
       </c>
@@ -7739,7 +7757,7 @@
         <v>3001.0997499999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>200812</v>
       </c>
@@ -7750,7 +7768,7 @@
         <v>2973.1785799999998</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>200901</v>
       </c>
@@ -7761,7 +7779,7 @@
         <v>2924.78485</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>200902</v>
       </c>
@@ -7772,7 +7790,7 @@
         <v>2924.0691999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>200903</v>
       </c>
@@ -7783,7 +7801,7 @@
         <v>2934.5829899999999</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>200904</v>
       </c>
@@ -7794,7 +7812,7 @@
         <v>2941.5235499999999</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>200905</v>
       </c>
@@ -7805,7 +7823,7 @@
         <v>2953.7189499999999</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>200906</v>
       </c>
@@ -7816,7 +7834,7 @@
         <v>2939.86879</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>200907</v>
       </c>
@@ -7827,7 +7845,7 @@
         <v>2929.4594200000001</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>200908</v>
       </c>
@@ -7838,7 +7856,7 @@
         <v>2915.22847</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>200909</v>
       </c>
@@ -7849,7 +7867,7 @@
         <v>2903.0625599999998</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>200910</v>
       </c>
@@ -7860,7 +7878,7 @@
         <v>2898.8331499999999</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>200911</v>
       </c>
@@ -7871,7 +7889,7 @@
         <v>2900.91336</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>200912</v>
       </c>
@@ -7882,7 +7900,7 @@
         <v>2905.9940999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>201001</v>
       </c>
@@ -7893,7 +7911,7 @@
         <v>2869.40569</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>201002</v>
       </c>
@@ -7904,7 +7922,7 @@
         <v>2882.88</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>201003</v>
       </c>
@@ -7915,7 +7933,7 @@
         <v>2886.3771000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>201004</v>
       </c>
@@ -7926,7 +7944,7 @@
         <v>2907.9243999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>201005</v>
       </c>
@@ -7937,7 +7955,7 @@
         <v>2920.5940500000002</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>201006</v>
       </c>
@@ -7948,7 +7966,7 @@
         <v>2908.0622800000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>201007</v>
       </c>
@@ -7959,7 +7977,7 @@
         <v>2894.7026999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>201008</v>
       </c>
@@ -7970,7 +7988,7 @@
         <v>2875.0661599999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>201009</v>
       </c>
@@ -7981,7 +7999,7 @@
         <v>2865.0139300000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>201010</v>
       </c>
@@ -7992,7 +8010,7 @@
         <v>2870.0603500000002</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>201011</v>
       </c>
@@ -8003,7 +8021,7 @@
         <v>2871.9856300000001</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>201012</v>
       </c>
@@ -8014,7 +8032,7 @@
         <v>2875.2306600000002</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>201101</v>
       </c>
@@ -8025,7 +8043,7 @@
         <v>2851.6725499999998</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>201102</v>
       </c>
@@ -8036,7 +8054,7 @@
         <v>2848.9483</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>201103</v>
       </c>
@@ -8047,7 +8065,7 @@
         <v>2856.6324300000001</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>201104</v>
       </c>
@@ -8058,7 +8076,7 @@
         <v>2879.6691500000002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>201105</v>
       </c>
@@ -8069,7 +8087,7 @@
         <v>2898.1571199999998</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>201106</v>
       </c>
@@ -8080,7 +8098,7 @@
         <v>2874.92427</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>201107</v>
       </c>
@@ -8091,7 +8109,7 @@
         <v>2864.1442400000001</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>201108</v>
       </c>
@@ -8102,7 +8120,7 @@
         <v>2847.8996099999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>201109</v>
       </c>
@@ -8113,7 +8131,7 @@
         <v>2834.4616999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>201110</v>
       </c>
@@ -8124,7 +8142,7 @@
         <v>2832.18345</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>201111</v>
       </c>
@@ -8135,7 +8153,7 @@
         <v>2823.2683200000001</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>201112</v>
       </c>
@@ -8146,7 +8164,7 @@
         <v>2841.2601</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>201201</v>
       </c>
@@ -8157,7 +8175,7 @@
         <v>2813.6979200000001</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>201202</v>
       </c>
@@ -8168,7 +8186,7 @@
         <v>2789.5136499999999</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>201203</v>
       </c>
@@ -8179,7 +8197,7 @@
         <v>2796.69211</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>201204</v>
       </c>
@@ -8190,7 +8208,7 @@
         <v>2804.5679100000002</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>201205</v>
       </c>
@@ -8201,7 +8219,7 @@
         <v>2809.0965299999998</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>201206</v>
       </c>
@@ -8212,7 +8230,7 @@
         <v>2791.3556100000001</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>201207</v>
       </c>
@@ -8223,7 +8241,7 @@
         <v>2773.31702</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>201208</v>
       </c>
@@ -8234,7 +8252,7 @@
         <v>2752.00585</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>201209</v>
       </c>
@@ -8245,7 +8263,7 @@
         <v>2727.7791000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>201210</v>
       </c>
@@ -8256,7 +8274,7 @@
         <v>2721.2553499999999</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>201211</v>
       </c>
@@ -8267,7 +8285,7 @@
         <v>2684.78053</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>201212</v>
       </c>
@@ -8278,7 +8296,7 @@
         <v>2681.6365599999999</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>201301</v>
       </c>
@@ -8289,7 +8307,7 @@
         <v>2635.3727399999998</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>201302</v>
       </c>
@@ -8300,7 +8318,7 @@
         <v>2630.93415</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>201303</v>
       </c>
@@ -8311,7 +8329,7 @@
         <v>2638.2363399999999</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>201304</v>
       </c>
@@ -8322,7 +8340,7 @@
         <v>2659.9977399999998</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>201305</v>
       </c>
@@ -8333,7 +8351,7 @@
         <v>2676.9932699999999</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>201306</v>
       </c>
@@ -8344,7 +8362,7 @@
         <v>2647.4252000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>201307</v>
       </c>
@@ -8355,7 +8373,7 @@
         <v>2633.3745399999998</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>201308</v>
       </c>
@@ -8366,7 +8384,7 @@
         <v>2623.8362900000002</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>201309</v>
       </c>
@@ -8377,7 +8395,7 @@
         <v>2617.6419900000001</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>201310</v>
       </c>
@@ -8388,7 +8406,7 @@
         <v>2631.7212199999999</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>201311</v>
       </c>
@@ -8399,7 +8417,7 @@
         <v>2650.1273000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>201312</v>
       </c>
@@ -8410,7 +8428,7 @@
         <v>2699.2423699999999</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>201401</v>
       </c>
@@ -8421,7 +8439,7 @@
         <v>2677.7109500000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>201402</v>
       </c>
@@ -8432,7 +8450,7 @@
         <v>2676.7035500000002</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>201403</v>
       </c>
@@ -8443,7 +8461,7 @@
         <v>2681.4145699999999</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>201404</v>
       </c>
@@ -8454,7 +8472,7 @@
         <v>2699.8501500000002</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>201405</v>
       </c>
@@ -8465,7 +8483,7 @@
         <v>2721.38402</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>201406</v>
       </c>
@@ -8476,7 +8494,7 @@
         <v>2691.9357599999998</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>201407</v>
       </c>
@@ -8487,7 +8505,7 @@
         <v>2682.5277000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>201408</v>
       </c>
@@ -8498,7 +8516,7 @@
         <v>2677.7678999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>201409</v>
       </c>
@@ -8509,7 +8527,7 @@
         <v>2675.00963</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>201410</v>
       </c>
@@ -8520,7 +8538,7 @@
         <v>2689.47561</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>201411</v>
       </c>
@@ -8531,7 +8549,7 @@
         <v>2721.9137000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>201412</v>
       </c>
@@ -8542,7 +8560,7 @@
         <v>2765.83941</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>201501</v>
       </c>
@@ -8553,7 +8571,7 @@
         <v>2717.0327499999999</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>201502</v>
       </c>
@@ -8564,7 +8582,7 @@
         <v>2737.2757499999998</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>201503</v>
       </c>
@@ -8575,7 +8593,7 @@
         <v>2781.4335999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>201504</v>
       </c>
@@ -8586,7 +8604,7 @@
         <v>2818.61465</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>201505</v>
       </c>
@@ -8597,7 +8615,7 @@
         <v>2821.33995</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>201506</v>
       </c>
@@ -8608,7 +8626,7 @@
         <v>2775.53874</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>201507</v>
       </c>
@@ -8619,7 +8637,7 @@
         <v>2764.2437599999998</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>201508</v>
       </c>
@@ -8630,7 +8648,7 @@
         <v>2755.8846400000002</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>201509</v>
       </c>
@@ -8641,7 +8659,7 @@
         <v>2744.9405000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>201510</v>
       </c>
@@ -8652,7 +8670,7 @@
         <v>2760.23648</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>201511</v>
       </c>
@@ -8663,7 +8681,7 @@
         <v>2781.8400999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>201512</v>
       </c>
@@ -8674,7 +8692,7 @@
         <v>2834.0647399999998</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>201601</v>
       </c>
@@ -8685,7 +8703,7 @@
         <v>2803.3826800000002</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>201602</v>
       </c>
@@ -8696,7 +8714,7 @@
         <v>2795.8735700000002</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>201603</v>
       </c>
@@ -8707,7 +8725,7 @@
         <v>2817.4976700000002</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>201604</v>
       </c>
@@ -8718,7 +8736,7 @@
         <v>2851.6179499999998</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>201605</v>
       </c>
@@ -8729,7 +8747,7 @@
         <v>2864.8333600000001</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>201606</v>
       </c>
@@ -8740,7 +8758,7 @@
         <v>2844.2573600000001</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>201607</v>
       </c>
@@ -8751,7 +8769,7 @@
         <v>2844.04495</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>201608</v>
       </c>
@@ -8762,7 +8780,7 @@
         <v>2830.4320499999999</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>201609</v>
       </c>
@@ -8773,7 +8791,7 @@
         <v>2820.9041400000001</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>201610</v>
       </c>
@@ -8784,7 +8802,7 @@
         <v>2849.03</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>201611</v>
       </c>
@@ -8795,7 +8813,7 @@
         <v>2859.6133799999998</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>201612</v>
       </c>
@@ -8806,7 +8824,7 @@
         <v>2911.7519499999999</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>201701</v>
       </c>
@@ -8817,7 +8835,7 @@
         <v>2893.3665700000001</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>201702</v>
       </c>
@@ -8828,7 +8846,7 @@
         <v>2891.7640000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>201703</v>
       </c>
@@ -8839,7 +8857,7 @@
         <v>2923.7510900000002</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>201704</v>
       </c>
@@ -8850,7 +8868,7 @@
         <v>2970.5454399999999</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>201705</v>
       </c>
@@ -8861,7 +8879,7 @@
         <v>2996.9540000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>201706</v>
       </c>
@@ -8872,7 +8890,7 @@
         <v>2970.1255000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>201707</v>
       </c>
@@ -8883,7 +8901,7 @@
         <v>2959.1869000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201708</v>
       </c>
@@ -8894,7 +8912,7 @@
         <v>2938.82105</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201709</v>
       </c>
@@ -8905,7 +8923,7 @@
         <v>2922.0980500000001</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>201710</v>
       </c>
@@ -8916,7 +8934,7 @@
         <v>2958.6068599999999</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>201711</v>
       </c>
@@ -8927,7 +8945,7 @@
         <v>2970.3928599999999</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>201712</v>
       </c>
@@ -8938,7 +8956,7 @@
         <v>3011.9533900000001</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>201801</v>
       </c>
@@ -8949,7 +8967,7 @@
         <v>2992.7089999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>201802</v>
       </c>
@@ -8960,7 +8978,7 @@
         <v>2993.1970000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>201803</v>
       </c>
@@ -8971,7 +8989,7 @@
         <v>3007.3380000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>201804</v>
       </c>
@@ -8982,7 +9000,7 @@
         <v>3057.1170000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>201805</v>
       </c>
@@ -8993,7 +9011,7 @@
         <v>3087.364</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>201806</v>
       </c>
@@ -9004,7 +9022,7 @@
         <v>3063.71</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>201807</v>
       </c>
@@ -9015,7 +9033,7 @@
         <v>3044.3429999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>201808</v>
       </c>
@@ -9026,7 +9044,7 @@
         <v>3025.3150000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>201809</v>
       </c>
@@ -9037,7 +9055,7 @@
         <v>3018.67</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>201810</v>
       </c>
@@ -9048,7 +9066,7 @@
         <v>3048.0590000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>201811</v>
       </c>
@@ -9059,7 +9077,7 @@
         <v>3053.1370000000002</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>201812</v>
       </c>
@@ -9070,7 +9088,7 @@
         <v>3110.1709999999998</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>201901</v>
       </c>
@@ -9081,7 +9099,7 @@
         <v>3087.538</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>201902</v>
       </c>
@@ -9092,7 +9110,7 @@
         <v>3083.5590000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>201903</v>
       </c>
@@ -9103,7 +9121,7 @@
         <v>3112.701</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>201904</v>
       </c>
@@ -9114,7 +9132,7 @@
         <v>3154.3710000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>201905</v>
       </c>
@@ -9125,7 +9143,7 @@
         <v>3185.712</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>201906</v>
       </c>
@@ -9136,7 +9154,7 @@
         <v>3152.3910000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>201907</v>
       </c>
@@ -9147,7 +9165,7 @@
         <v>3137.6790000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>201908</v>
       </c>
@@ -9158,7 +9176,7 @@
         <v>3121.7260000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>201909</v>
       </c>
@@ -9169,7 +9187,7 @@
         <v>3108.6030000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>201910</v>
       </c>
@@ -9180,7 +9198,7 @@
         <v>3133.6320000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>201911</v>
       </c>
@@ -9191,7 +9209,7 @@
         <v>3137.319</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>201912</v>
       </c>
@@ -9202,7 +9220,7 @@
         <v>3175.3719999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>202001</v>
       </c>
@@ -9213,7 +9231,7 @@
         <v>3135.2240000000002</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>202002</v>
       </c>
@@ -9224,7 +9242,7 @@
         <v>3138.8159999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>202003</v>
       </c>
@@ -9235,7 +9253,7 @@
         <v>3084.7179999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>202004</v>
       </c>
@@ -9246,7 +9264,7 @@
         <v>2961.4580000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>202005</v>
       </c>
@@ -9257,7 +9275,7 @@
         <v>2991.8649999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>202006</v>
       </c>
@@ -9268,7 +9286,7 @@
         <v>2993.377</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>202007</v>
       </c>
@@ -9279,7 +9297,7 @@
         <v>3009.19</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>202008</v>
       </c>
@@ -9290,7 +9308,7 @@
         <v>3027.904</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>202009</v>
       </c>
@@ -9301,7 +9319,7 @@
         <v>3039.1930000000002</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>202010</v>
       </c>
@@ -9312,7 +9330,7 @@
         <v>3075.567</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>202011</v>
       </c>
@@ -9323,7 +9341,7 @@
         <v>3095.6579999999999</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>202012</v>
       </c>
@@ -9334,7 +9352,7 @@
         <v>3124.3539999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>202101</v>
       </c>
@@ -9345,7 +9363,7 @@
         <v>3099.107</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>202102</v>
       </c>
@@ -9356,7 +9374,7 @@
         <v>3095.2719999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>202103</v>
       </c>
@@ -9367,7 +9385,7 @@
         <v>3097.0390000000002</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>202104</v>
       </c>
@@ -9378,7 +9396,7 @@
         <v>3127.3220000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>202105</v>
       </c>
@@ -9389,7 +9407,7 @@
         <v>3161.085</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>202106</v>
       </c>
@@ -9400,7 +9418,7 @@
         <v>3168.6010000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>202107</v>
       </c>
@@ -9411,7 +9429,7 @@
         <v>3166.3490000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>202108</v>
       </c>
@@ -9422,7 +9440,7 @@
         <v>3161.806</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>202109</v>
       </c>
@@ -9433,7 +9451,7 @@
         <v>3158.924</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>202110</v>
       </c>
@@ -9444,7 +9462,7 @@
         <v>3195.3</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>202111</v>
       </c>
@@ -9455,7 +9473,7 @@
         <v>3213.1770000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>202112</v>
       </c>
@@ -9466,7 +9484,7 @@
         <v>3253.95</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>202201</v>
       </c>
@@ -9477,7 +9495,7 @@
         <v>3222.2089999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>202202</v>
       </c>
@@ -9488,7 +9506,7 @@
         <v>3221.3539999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>202203</v>
       </c>
@@ -9499,7 +9517,7 @@
         <v>3246.442</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>202204</v>
       </c>
@@ -9510,7 +9528,7 @@
         <v>3287.7460000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>202205</v>
       </c>
@@ -9521,7 +9539,7 @@
         <v>3320.6669999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>202206</v>
       </c>
@@ -9532,7 +9550,7 @@
         <v>3301.308</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>202207</v>
       </c>
@@ -9543,7 +9561,7 @@
         <v>3281.3159999999998</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>202208</v>
       </c>
@@ -9554,7 +9572,7 @@
         <v>3260.56441</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>202209</v>
       </c>
@@ -9565,7 +9583,7 @@
         <v>3251.2541799999999</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>202210</v>
       </c>
@@ -9576,7 +9594,7 @@
         <v>3274.4928500000001</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>202211</v>
       </c>
@@ -9587,7 +9605,7 @@
         <v>3287.3742400000001</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>202212</v>
       </c>
@@ -9598,7 +9616,7 @@
         <v>3312.3190500000001</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>202301</v>
       </c>
@@ -9609,7 +9627,7 @@
         <v>3282.3052400000001</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>202302</v>
       </c>
@@ -9620,7 +9638,7 @@
         <v>3289.3471500000001</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>202303</v>
       </c>
@@ -9631,7 +9649,7 @@
         <v>3334.0045700000001</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>202304</v>
       </c>
@@ -9642,7 +9660,7 @@
         <v>3386.5040600000002</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>202305</v>
       </c>
@@ -9653,7 +9671,7 @@
         <v>3394.37905</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>202306</v>
       </c>
@@ -9664,7 +9682,7 @@
         <v>3356.2580899999998</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>202307</v>
       </c>
@@ -9675,7 +9693,7 @@
         <v>3344.1125200000001</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>202308</v>
       </c>
@@ -9686,7 +9704,7 @@
         <v>3326.72595</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>202309</v>
       </c>
@@ -9697,7 +9715,7 @@
         <v>3318.5659000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>202310</v>
       </c>
@@ -9708,7 +9726,7 @@
         <v>3330.9495700000002</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>202311</v>
       </c>
@@ -9719,7 +9737,7 @@
         <v>3351.17157</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>202312</v>
       </c>
@@ -9730,7 +9748,7 @@
         <v>3376.6765</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>202401</v>
       </c>
@@ -9741,7 +9759,7 @@
         <v>3333.0523199999998</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>202402</v>
       </c>
@@ -9752,7 +9770,7 @@
         <v>3351.37781</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>202403</v>
       </c>
@@ -9763,7 +9781,7 @@
         <v>3399.3167899999999</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>202404</v>
       </c>
@@ -9774,7 +9792,7 @@
         <v>3440.68</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>202405</v>
       </c>
@@ -9785,7 +9803,7 @@
         <v>3458.83</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>202406</v>
       </c>
@@ -9796,7 +9814,7 @@
         <v>3427.67</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>202407</v>
       </c>
@@ -9807,7 +9825,7 @@
         <v>3415.84</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286">
         <f>((B285/B273)-1)*100</f>
         <v>2.3512473021828129</v>
@@ -9817,10 +9835,10 @@
         <v>2.1448883544145758</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="50"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B288" s="50"/>
     </row>
   </sheetData>
@@ -9836,9 +9854,9 @@
       <selection activeCell="B100" sqref="B100:G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -9861,7 +9879,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -9884,7 +9902,7 @@
         <v>148101</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20001</v>
       </c>
@@ -9907,7 +9925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20002</v>
       </c>
@@ -9930,7 +9948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20003</v>
       </c>
@@ -9953,7 +9971,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20004</v>
       </c>
@@ -9976,7 +9994,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20011</v>
       </c>
@@ -9999,7 +10017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20012</v>
       </c>
@@ -10022,7 +10040,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20013</v>
       </c>
@@ -10045,7 +10063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20014</v>
       </c>
@@ -10068,7 +10086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20021</v>
       </c>
@@ -10091,7 +10109,7 @@
         <v>591.1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20022</v>
       </c>
@@ -10114,7 +10132,7 @@
         <v>591.70000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20023</v>
       </c>
@@ -10137,7 +10155,7 @@
         <v>641.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20024</v>
       </c>
@@ -10160,7 +10178,7 @@
         <v>644.70000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20031</v>
       </c>
@@ -10183,7 +10201,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20032</v>
       </c>
@@ -10206,7 +10224,7 @@
         <v>581.6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20033</v>
       </c>
@@ -10229,7 +10247,7 @@
         <v>605.1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20034</v>
       </c>
@@ -10252,7 +10270,7 @@
         <v>608.20000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20041</v>
       </c>
@@ -10275,7 +10293,7 @@
         <v>567.79999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20042</v>
       </c>
@@ -10298,7 +10316,7 @@
         <v>578.29999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20043</v>
       </c>
@@ -10321,7 +10339,7 @@
         <v>590.4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20044</v>
       </c>
@@ -10344,7 +10362,7 @@
         <v>547.4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20051</v>
       </c>
@@ -10367,7 +10385,7 @@
         <v>489.2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20052</v>
       </c>
@@ -10390,7 +10408,7 @@
         <v>474.8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20053</v>
       </c>
@@ -10413,7 +10431,7 @@
         <v>470.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20054</v>
       </c>
@@ -10436,7 +10454,7 @@
         <v>489.9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20061</v>
       </c>
@@ -10459,7 +10477,7 @@
         <v>476.3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20062</v>
       </c>
@@ -10482,7 +10500,7 @@
         <v>448.7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20063</v>
       </c>
@@ -10505,7 +10523,7 @@
         <v>446.4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20064</v>
       </c>
@@ -10528,7 +10546,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20071</v>
       </c>
@@ -10551,7 +10569,7 @@
         <v>459.8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20072</v>
       </c>
@@ -10574,7 +10592,7 @@
         <v>442.3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20073</v>
       </c>
@@ -10597,7 +10615,7 @@
         <v>466.7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20074</v>
       </c>
@@ -10620,7 +10638,7 @@
         <v>525.4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20081</v>
       </c>
@@ -10643,7 +10661,7 @@
         <v>561.70000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20082</v>
       </c>
@@ -10666,7 +10684,7 @@
         <v>616.1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20083</v>
       </c>
@@ -10689,7 +10707,7 @@
         <v>701.7</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20084</v>
       </c>
@@ -10712,7 +10730,7 @@
         <v>845.6</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20091</v>
       </c>
@@ -10735,7 +10753,7 @@
         <v>939.6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20092</v>
       </c>
@@ -10758,7 +10776,7 @@
         <v>994.4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20093</v>
       </c>
@@ -10781,7 +10799,7 @@
         <v>992.7</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20094</v>
       </c>
@@ -10804,7 +10822,7 @@
         <v>1034.0999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20101</v>
       </c>
@@ -10827,7 +10845,7 @@
         <v>1077.5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20102</v>
       </c>
@@ -10850,7 +10868,7 @@
         <v>1100.0999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20103</v>
       </c>
@@ -10873,7 +10891,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20104</v>
       </c>
@@ -10896,7 +10914,7 @@
         <v>1117.4000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20111</v>
       </c>
@@ -10919,7 +10937,7 @@
         <v>1177.5999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20112</v>
       </c>
@@ -10942,7 +10960,7 @@
         <v>1173.5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20113</v>
       </c>
@@ -10965,7 +10983,7 @@
         <v>1227.9000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20114</v>
       </c>
@@ -10988,7 +11006,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20121</v>
       </c>
@@ -11011,7 +11029,7 @@
         <v>1326.5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20122</v>
       </c>
@@ -11034,7 +11052,7 @@
         <v>1358.7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20123</v>
       </c>
@@ -11057,7 +11075,7 @@
         <v>1426.7</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20124</v>
       </c>
@@ -11080,7 +11098,7 @@
         <v>1446.8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20131</v>
       </c>
@@ -11103,7 +11121,7 @@
         <v>1481.7</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20132</v>
       </c>
@@ -11126,7 +11144,7 @@
         <v>1447.2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20133</v>
       </c>
@@ -11149,7 +11167,7 @@
         <v>1450.8</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20134</v>
       </c>
@@ -11172,7 +11190,7 @@
         <v>1462.5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20141</v>
       </c>
@@ -11195,7 +11213,7 @@
         <v>1403.3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20142</v>
       </c>
@@ -11218,7 +11236,7 @@
         <v>1400.3</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>20143</v>
       </c>
@@ -11241,7 +11259,7 @@
         <v>1419.1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20144</v>
       </c>
@@ -11264,7 +11282,7 @@
         <v>1395.8</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>20151</v>
       </c>
@@ -11287,7 +11305,7 @@
         <v>1359.2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>20152</v>
       </c>
@@ -11310,7 +11328,7 @@
         <v>1260.4000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>20153</v>
       </c>
@@ -11333,7 +11351,7 @@
         <v>1281.9000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>20154</v>
       </c>
@@ -11356,7 +11374,7 @@
         <v>1198.3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>20161</v>
       </c>
@@ -11379,7 +11397,7 @@
         <v>1189.2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>20162</v>
       </c>
@@ -11402,7 +11420,7 @@
         <v>1161.0999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>20163</v>
       </c>
@@ -11425,7 +11443,7 @@
         <v>1133.7</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20164</v>
       </c>
@@ -11448,7 +11466,7 @@
         <v>1120.3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>20171</v>
       </c>
@@ -11471,7 +11489,7 @@
         <v>1072.4000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>20172</v>
       </c>
@@ -11494,7 +11512,7 @@
         <v>1000.2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>20173</v>
       </c>
@@ -11517,7 +11535,7 @@
         <v>1005.6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>20174</v>
       </c>
@@ -11540,7 +11558,7 @@
         <v>960.6</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>20181</v>
       </c>
@@ -11563,7 +11581,7 @@
         <v>975.7</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>20182</v>
       </c>
@@ -11586,7 +11604,7 @@
         <v>910.3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>20183</v>
       </c>
@@ -11609,7 +11627,7 @@
         <v>898.2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>20184</v>
       </c>
@@ -11632,7 +11650,7 @@
         <v>834.3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>20191</v>
       </c>
@@ -11655,7 +11673,7 @@
         <v>829.4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>20192</v>
       </c>
@@ -11678,7 +11696,7 @@
         <v>835.5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20193</v>
       </c>
@@ -11701,7 +11719,7 @@
         <v>865.7</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20194</v>
       </c>
@@ -11724,7 +11742,7 @@
         <v>823.9</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>20201</v>
       </c>
@@ -11747,7 +11765,7 @@
         <v>836.6</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>20202</v>
       </c>
@@ -11770,7 +11788,7 @@
         <v>788.5</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20203</v>
       </c>
@@ -11793,7 +11811,7 @@
         <v>932.3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20204</v>
       </c>
@@ -11816,7 +11834,7 @@
         <v>907.3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>20211</v>
       </c>
@@ -11839,7 +11857,7 @@
         <v>897.3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>20212</v>
       </c>
@@ -11862,7 +11880,7 @@
         <v>877.6</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20213</v>
       </c>
@@ -11885,7 +11903,7 @@
         <v>919.8</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>20214</v>
       </c>
@@ -11908,7 +11926,7 @@
         <v>830.9</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>20221</v>
       </c>
@@ -11931,7 +11949,7 @@
         <v>784.8</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>20222</v>
       </c>
@@ -11954,7 +11972,7 @@
         <v>760.9</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20223</v>
       </c>
@@ -11977,7 +11995,7 @@
         <v>778.9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20224</v>
       </c>
@@ -12000,7 +12018,7 @@
         <v>772.1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>20231</v>
       </c>
@@ -12023,7 +12041,7 @@
         <v>753.6</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>20232</v>
       </c>
@@ -12046,7 +12064,7 @@
         <v>755.5</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20233</v>
       </c>
@@ -12069,7 +12087,7 @@
         <v>783.4</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20234</v>
       </c>
@@ -12092,7 +12110,7 @@
         <v>727.5</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20241</v>
       </c>
@@ -12115,7 +12133,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B100">
         <f>((B99/B95)-1)*100</f>
         <v>1.7102915555928799</v>
@@ -12154,9 +12172,9 @@
       <selection activeCell="E3" sqref="E3:N194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>118</v>
       </c>
@@ -12179,7 +12197,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>125</v>
       </c>
@@ -12202,7 +12220,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>24</v>
       </c>
@@ -12225,7 +12243,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>28</v>
       </c>
@@ -12248,7 +12266,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>4</v>
       </c>
@@ -12271,7 +12289,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -12294,7 +12312,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>5</v>
       </c>
@@ -12317,7 +12335,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>31</v>
       </c>
@@ -12340,7 +12358,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>143</v>
       </c>
@@ -12363,7 +12381,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>34</v>
       </c>
@@ -12386,7 +12404,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>35</v>
       </c>
@@ -12409,7 +12427,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>36</v>
       </c>
@@ -12432,7 +12450,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>37</v>
       </c>
@@ -12455,7 +12473,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>38</v>
       </c>
@@ -12478,7 +12496,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>42</v>
       </c>
@@ -12501,7 +12519,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>44</v>
       </c>
@@ -12524,87 +12542,87 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>179</v>
       </c>
@@ -12618,7 +12636,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>1</v>
       </c>
@@ -12632,12 +12650,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>6</v>
       </c>
@@ -12660,7 +12678,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>45</v>
       </c>
@@ -12683,7 +12701,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>46</v>
       </c>
@@ -12706,7 +12724,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>47</v>
       </c>
@@ -12729,7 +12747,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>48</v>
       </c>
@@ -12752,7 +12770,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>193</v>
       </c>
@@ -12775,7 +12793,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>197</v>
       </c>
@@ -12798,7 +12816,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>198</v>
       </c>
@@ -12821,7 +12839,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>201</v>
       </c>
@@ -12844,7 +12862,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>205</v>
       </c>
@@ -12867,82 +12885,82 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
         <v>179</v>
       </c>
@@ -12956,7 +12974,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="76" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
         <v>1</v>
       </c>
@@ -12970,12 +12988,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>54</v>
       </c>
@@ -12998,7 +13016,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>56</v>
       </c>
@@ -13021,7 +13039,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>57</v>
       </c>
@@ -13044,7 +13062,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>58</v>
       </c>
@@ -13067,7 +13085,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>59</v>
       </c>
@@ -13090,7 +13108,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>60</v>
       </c>
@@ -13113,7 +13131,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>61</v>
       </c>
@@ -13136,7 +13154,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>62</v>
       </c>
@@ -13159,32 +13177,32 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
         <v>179</v>
       </c>
@@ -13198,7 +13216,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="96" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F96" t="s">
         <v>1</v>
       </c>
@@ -13212,12 +13230,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
         <v>7</v>
       </c>
@@ -13240,7 +13258,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
         <v>63</v>
       </c>
@@ -13263,7 +13281,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="100" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
         <v>8</v>
       </c>
@@ -13286,7 +13304,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
         <v>64</v>
       </c>
@@ -13309,7 +13327,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
         <v>65</v>
       </c>
@@ -13332,7 +13350,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
         <v>9</v>
       </c>
@@ -13355,7 +13373,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
         <v>10</v>
       </c>
@@ -13378,7 +13396,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
         <v>66</v>
       </c>
@@ -13401,7 +13419,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="106" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
         <v>67</v>
       </c>
@@ -13424,52 +13442,52 @@
         <v>124</v>
       </c>
     </row>
-    <row r="108" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="110" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="111" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="112" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="113" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="114" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="115" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="116" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="118" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="120" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F120" t="s">
         <v>179</v>
       </c>
@@ -13483,7 +13501,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="121" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F121" t="s">
         <v>1</v>
       </c>
@@ -13497,12 +13515,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="123" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
         <v>68</v>
       </c>
@@ -13525,7 +13543,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
         <v>69</v>
       </c>
@@ -13548,7 +13566,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
         <v>70</v>
       </c>
@@ -13571,7 +13589,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
         <v>71</v>
       </c>
@@ -13594,7 +13612,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
         <v>73</v>
       </c>
@@ -13617,7 +13635,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
         <v>74</v>
       </c>
@@ -13640,7 +13658,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="129" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
         <v>76</v>
       </c>
@@ -13663,7 +13681,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
         <v>77</v>
       </c>
@@ -13686,37 +13704,37 @@
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="135" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="136" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="137" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="139" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="141" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F141" t="s">
         <v>179</v>
       </c>
@@ -13730,7 +13748,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F142" t="s">
         <v>1</v>
       </c>
@@ -13744,12 +13762,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="144" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
         <v>78</v>
       </c>
@@ -13772,7 +13790,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
         <v>79</v>
       </c>
@@ -13795,32 +13813,32 @@
         <v>124</v>
       </c>
     </row>
-    <row r="147" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="150" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="152" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="154" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="155" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="5:13" x14ac:dyDescent="0.25">
       <c r="F155" t="s">
         <v>1</v>
       </c>
@@ -13834,7 +13852,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="156" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="5:13" x14ac:dyDescent="0.25">
       <c r="F156" t="s">
         <v>299</v>
       </c>
@@ -13854,12 +13872,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="157" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="158" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
         <v>303</v>
       </c>
@@ -13888,7 +13906,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="159" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
         <v>310</v>
       </c>
@@ -13917,7 +13935,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="160" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
         <v>314</v>
       </c>
@@ -13946,7 +13964,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="161" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
         <v>316</v>
       </c>
@@ -13975,7 +13993,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="162" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E162" t="s">
         <v>320</v>
       </c>
@@ -14004,7 +14022,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="163" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
         <v>321</v>
       </c>
@@ -14033,42 +14051,42 @@
         <v>124</v>
       </c>
     </row>
-    <row r="165" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="167" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E167" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="168" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="169" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="170" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E170" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="172" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="174" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E174" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="5:13" x14ac:dyDescent="0.25">
       <c r="F176" t="s">
         <v>1</v>
       </c>
@@ -14082,7 +14100,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="177" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="5:13" x14ac:dyDescent="0.25">
       <c r="F177" t="s">
         <v>299</v>
       </c>
@@ -14102,12 +14120,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="178" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="179" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
         <v>328</v>
       </c>
@@ -14136,7 +14154,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="180" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
         <v>335</v>
       </c>
@@ -14165,7 +14183,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="181" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
         <v>342</v>
       </c>
@@ -14194,7 +14212,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="182" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
         <v>342</v>
       </c>
@@ -14223,7 +14241,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
         <v>355</v>
       </c>
@@ -14252,7 +14270,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="184" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
         <v>362</v>
       </c>
@@ -14281,7 +14299,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="185" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
         <v>369</v>
       </c>
@@ -14310,7 +14328,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="186" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E186" t="s">
         <v>376</v>
       </c>
@@ -14339,7 +14357,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="187" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
         <v>383</v>
       </c>
@@ -14368,7 +14386,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="188" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
         <v>387</v>
       </c>
@@ -14397,7 +14415,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="189" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
         <v>394</v>
       </c>
@@ -14426,7 +14444,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="190" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
         <v>401</v>
       </c>
@@ -14455,7 +14473,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="191" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
         <v>403</v>
       </c>
@@ -14484,7 +14502,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="192" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
         <v>404</v>
       </c>
@@ -14513,7 +14531,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="193" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
         <v>406</v>
       </c>
@@ -14542,7 +14560,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="194" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
         <v>410</v>
       </c>
